--- a/data/trans_orig/P2A_ner_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E40383F-700F-4AD1-945A-D51BED9252F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9678D249-1A3B-422E-A62B-A9ED7DD75EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42CFE899-0022-4B42-B5C8-A099A5A46FE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98B61BFD-2583-4DF2-824F-3E5457038090}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
   <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,1714 +80,1714 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>13,75%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>93,52%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256E924D-E727-410F-B6E8-274B1F0FACF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD388DE-9281-4150-A0A4-597BBAB0DE3D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2976,10 +2976,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>195182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3009,13 +3009,13 @@
         <v>192830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -3024,13 +3024,13 @@
         <v>388012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,7 +3086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3098,13 +3098,13 @@
         <v>3912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3113,13 +3113,13 @@
         <v>10120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3128,13 +3128,13 @@
         <v>14032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3149,13 @@
         <v>266899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -3164,13 +3164,13 @@
         <v>268024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -3179,13 +3179,13 @@
         <v>534923</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3241,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3253,13 +3253,13 @@
         <v>10890</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3268,13 +3268,13 @@
         <v>21799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3283,13 +3283,13 @@
         <v>32689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3304,13 @@
         <v>604137</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>598</v>
@@ -3319,13 +3319,13 @@
         <v>616420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1184</v>
@@ -3334,13 +3334,13 @@
         <v>1220557</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3408,13 +3408,13 @@
         <v>30686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -3423,13 +3423,13 @@
         <v>43868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -3438,13 +3438,13 @@
         <v>74554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3459,13 @@
         <v>713109</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>706</v>
@@ -3474,13 +3474,13 @@
         <v>739643</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1413</v>
@@ -3489,13 +3489,13 @@
         <v>1452752</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3563,13 @@
         <v>89804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -3578,13 +3578,13 @@
         <v>153804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>239</v>
@@ -3593,13 +3593,13 @@
         <v>243608</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,16 +3611,16 @@
         <v>3124</v>
       </c>
       <c r="D29" s="7">
-        <v>3186739</v>
+        <v>3186740</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>3148</v>
@@ -3629,28 +3629,28 @@
         <v>3225394</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6272</v>
       </c>
       <c r="N29" s="7">
-        <v>6412133</v>
+        <v>6412132</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3692,7 +3692,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766C98FD-4443-4C39-AF8C-BB3116D62308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0429DD7A-B842-4DF2-B5AD-06A676CA5D45}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3747,7 +3747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3852,39 +3852,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,39 +3897,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,39 +3942,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3991,13 @@
         <v>14898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4006,13 +4006,13 @@
         <v>31297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4021,13 +4021,13 @@
         <v>46195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4042,13 @@
         <v>490629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -4057,13 +4057,13 @@
         <v>492468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>911</v>
@@ -4072,13 +4072,13 @@
         <v>983097</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4146,13 @@
         <v>7658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4161,13 +4161,13 @@
         <v>6195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4176,13 +4176,13 @@
         <v>13853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4197,13 @@
         <v>316388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -4212,13 +4212,13 @@
         <v>334825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -4227,13 +4227,13 @@
         <v>651213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4301,13 @@
         <v>19305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4316,13 +4316,13 @@
         <v>51881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4331,13 +4331,13 @@
         <v>71186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4352,13 @@
         <v>649415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -4367,13 +4367,13 @@
         <v>624315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1182</v>
@@ -4382,13 +4382,13 @@
         <v>1273730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4456,13 @@
         <v>20342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4471,13 +4471,13 @@
         <v>30554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4486,13 +4486,13 @@
         <v>50895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4507,13 @@
         <v>192276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -4522,13 +4522,13 @@
         <v>189037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -4537,13 +4537,13 @@
         <v>381314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,7 +4599,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4611,13 +4611,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4626,13 +4626,13 @@
         <v>10082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4641,13 +4641,13 @@
         <v>11025</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,10 +4662,10 @@
         <v>273038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -4677,13 +4677,13 @@
         <v>269949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>519</v>
@@ -4692,13 +4692,13 @@
         <v>542987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4754,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4766,13 +4766,13 @@
         <v>18323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4781,13 +4781,13 @@
         <v>15801</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4796,13 +4796,13 @@
         <v>34124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4817,13 @@
         <v>644465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -4832,13 +4832,13 @@
         <v>678052</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1221</v>
@@ -4847,13 +4847,13 @@
         <v>1322517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4921,13 +4921,13 @@
         <v>23749</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4936,13 +4936,13 @@
         <v>29753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4951,13 +4951,13 @@
         <v>53502</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4972,13 @@
         <v>755349</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -4987,13 +4987,13 @@
         <v>794100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -5002,13 +5002,13 @@
         <v>1549449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5076,13 @@
         <v>105218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -5091,13 +5091,13 @@
         <v>175563</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -5109,10 +5109,10 @@
         <v>73</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5127,13 @@
         <v>3321561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>3131</v>
@@ -5142,13 +5142,13 @@
         <v>3382746</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>6241</v>
@@ -5160,10 +5160,10 @@
         <v>82</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5219,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5243,7 +5243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780328CE-98D0-472D-96E9-F7EE9CC25BAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF4A66-71AD-44C6-A078-1A325C95CD8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5260,7 +5260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5367,13 +5367,13 @@
         <v>22004</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -5382,13 +5382,13 @@
         <v>46635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -5397,13 +5397,13 @@
         <v>68639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5418,13 @@
         <v>271757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>233</v>
@@ -5433,13 +5433,13 @@
         <v>242068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>478</v>
@@ -5448,13 +5448,13 @@
         <v>513825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5522,13 @@
         <v>16683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -5537,13 +5537,13 @@
         <v>52942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5552,13 +5552,13 @@
         <v>69625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5573,13 @@
         <v>485892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -5588,13 +5588,13 @@
         <v>470142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>895</v>
@@ -5603,13 +5603,13 @@
         <v>956034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5677,13 @@
         <v>6083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -5692,13 +5692,13 @@
         <v>30899</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5707,13 +5707,13 @@
         <v>36981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5728,13 @@
         <v>312482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -5743,13 +5743,13 @@
         <v>305410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -5758,13 +5758,13 @@
         <v>617893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5832,13 @@
         <v>17312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5847,13 +5847,13 @@
         <v>32952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5862,13 +5862,13 @@
         <v>50264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5883,13 @@
         <v>352652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5898,13 +5898,13 @@
         <v>354331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -5913,13 +5913,13 @@
         <v>706983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5987,13 @@
         <v>15543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -6002,13 +6002,13 @@
         <v>30053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6017,13 +6017,13 @@
         <v>45596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6038,13 @@
         <v>195678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -6053,13 +6053,13 @@
         <v>188534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6068,13 +6068,13 @@
         <v>384212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6130,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6142,13 +6142,13 @@
         <v>11583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6157,13 +6157,13 @@
         <v>32973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6172,13 +6172,13 @@
         <v>44557</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6193,13 @@
         <v>251540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -6208,13 +6208,13 @@
         <v>240142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -6223,13 +6223,13 @@
         <v>491681</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6297,13 +6297,13 @@
         <v>27521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -6312,13 +6312,13 @@
         <v>76585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -6327,13 +6327,13 @@
         <v>104106</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6348,13 @@
         <v>629037</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>579</v>
@@ -6363,13 +6363,13 @@
         <v>614709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>1135</v>
@@ -6378,13 +6378,13 @@
         <v>1243746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6440,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6452,13 +6452,13 @@
         <v>36444</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6467,13 +6467,13 @@
         <v>87759</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -6482,13 +6482,13 @@
         <v>124203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6503,13 @@
         <v>742139</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -6518,13 +6518,13 @@
         <v>738408</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>1393</v>
@@ -6533,13 +6533,13 @@
         <v>1480547</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6607,13 @@
         <v>153173</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>223</v>
       </c>
       <c r="H28" s="7">
         <v>356</v>
@@ -6622,13 +6622,13 @@
         <v>390800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>505</v>
@@ -6637,13 +6637,13 @@
         <v>543973</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6658,13 @@
         <v>3241177</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>46</v>
       </c>
       <c r="H29" s="7">
         <v>2982</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B801ED-7523-42B0-9D33-78F062733E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0465AFBD-9BDF-4803-A6C4-FCC3140DD775}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6916,10 +6916,10 @@
         <v>458</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>459</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -6928,13 +6928,13 @@
         <v>17615</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6949,13 @@
         <v>249786</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H5" s="7">
         <v>522</v>
@@ -6964,13 +6964,13 @@
         <v>264299</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>468</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
@@ -6979,13 +6979,13 @@
         <v>514085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>465</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7053,13 @@
         <v>24057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -7068,13 +7068,13 @@
         <v>39053</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -7083,13 +7083,13 @@
         <v>63111</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>475</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7104,13 @@
         <v>495240</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>664</v>
@@ -7119,13 +7119,13 @@
         <v>515513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
@@ -7134,13 +7134,13 @@
         <v>1010753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7208,13 @@
         <v>11354</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -7223,13 +7223,13 @@
         <v>23990</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -7238,13 +7238,13 @@
         <v>35344</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7259,13 @@
         <v>310886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>493</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>500</v>
@@ -7274,13 +7274,13 @@
         <v>349294</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>848</v>
@@ -7289,13 +7289,13 @@
         <v>660180</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7363,13 @@
         <v>19941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -7378,13 +7378,13 @@
         <v>22907</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -7393,13 +7393,13 @@
         <v>42848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>507</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>508</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7414,13 @@
         <v>302299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>571</v>
@@ -7429,13 +7429,13 @@
         <v>405649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -7444,13 +7444,13 @@
         <v>707948</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>516</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7518,13 @@
         <v>2267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -7536,10 +7536,10 @@
         <v>458</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>518</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -7548,13 +7548,13 @@
         <v>9067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7569,13 @@
         <v>194481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>480</v>
@@ -7584,13 +7584,13 @@
         <v>252713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>524</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
@@ -7599,13 +7599,13 @@
         <v>447193</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,7 +7661,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7676,10 +7676,10 @@
         <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7688,13 +7688,13 @@
         <v>11496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -7703,13 +7703,13 @@
         <v>22646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,10 +7727,10 @@
         <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -7739,13 +7739,13 @@
         <v>264126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>796</v>
@@ -7754,13 +7754,13 @@
         <v>530199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,7 +7816,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7831,10 +7831,10 @@
         <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>536</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7843,13 +7843,13 @@
         <v>159023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -7858,13 +7858,13 @@
         <v>194113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>541</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7879,13 @@
         <v>592664</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
         <v>884</v>
@@ -7894,13 +7894,13 @@
         <v>645180</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
         <v>1447</v>
@@ -7909,13 +7909,13 @@
         <v>1237844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +7971,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7983,13 +7983,13 @@
         <v>93496</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>138</v>
@@ -7998,13 +7998,13 @@
         <v>106499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>230</v>
@@ -8013,13 +8013,13 @@
         <v>199995</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>373</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8034,13 @@
         <v>765932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>562</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>924</v>
@@ -8049,13 +8049,13 @@
         <v>761935</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>1594</v>
@@ -8064,13 +8064,13 @@
         <v>1527867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8138,13 @@
         <v>207867</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>569</v>
+        <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H28" s="7">
         <v>383</v>
@@ -8153,13 +8153,13 @@
         <v>376872</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>375</v>
+        <v>569</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M28" s="7">
         <v>588</v>
@@ -8168,13 +8168,13 @@
         <v>584739</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8189,13 @@
         <v>3177361</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>4984</v>
@@ -8204,28 +8204,28 @@
         <v>3458709</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>577</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M29" s="7">
         <v>8155</v>
       </c>
       <c r="N29" s="7">
-        <v>6636069</v>
+        <v>6636070</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,7 +8267,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_ner_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9678D249-1A3B-422E-A62B-A9ED7DD75EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C53101F9-CA54-42E4-8B99-287486BED5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98B61BFD-2583-4DF2-824F-3E5457038090}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{11ABDB6B-CF63-4E70-BCE6-57F3653DD4B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="578">
   <si>
     <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -479,1315 +479,1300 @@
     <t>Sevilla</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD388DE-9281-4150-A0A4-597BBAB0DE3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890BA83F-1AB7-4A12-A398-3A8863FCD4BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3402,10 +3387,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>30686</v>
+        <v>31800</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -3417,10 +3402,10 @@
         <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="7">
-        <v>43868</v>
+        <v>45019</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -3432,10 +3417,10 @@
         <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N25" s="7">
-        <v>74554</v>
+        <v>76819</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -3453,10 +3438,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D26" s="7">
-        <v>713109</v>
+        <v>711995</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -3468,10 +3453,10 @@
         <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I26" s="7">
-        <v>739643</v>
+        <v>738492</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -3483,10 +3468,10 @@
         <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="N26" s="7">
-        <v>1452752</v>
+        <v>1450487</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -3557,10 +3542,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7">
-        <v>89804</v>
+        <v>90919</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -3569,37 +3554,37 @@
         <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="7">
+        <v>150</v>
+      </c>
+      <c r="I28" s="7">
+        <v>154955</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7">
-        <v>149</v>
-      </c>
-      <c r="I28" s="7">
-        <v>153804</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>241</v>
+      </c>
+      <c r="N28" s="7">
+        <v>245873</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M28" s="7">
-        <v>239</v>
-      </c>
-      <c r="N28" s="7">
-        <v>243608</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,46 +3593,46 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="D29" s="7">
-        <v>3186740</v>
+        <v>3185624</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>3147</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3224242</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="7">
-        <v>3148</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3225394</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="7">
+        <v>6270</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6409868</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M29" s="7">
-        <v>6272</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6412132</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>177</v>
@@ -3662,7 +3647,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3677,7 +3662,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3692,7 +3677,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3730,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0429DD7A-B842-4DF2-B5AD-06A676CA5D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B16CE80-904E-4925-83B0-02F8ED7D322D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3848,43 +3833,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10192</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18201</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28393</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,43 +3884,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="D5" s="7">
+        <v>284546</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="I5" s="7">
+        <v>269044</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>510</v>
+      </c>
+      <c r="N5" s="7">
+        <v>553590</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,43 +3935,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3994,13 @@
         <v>14898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4006,13 +4009,13 @@
         <v>31297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -4021,13 +4024,13 @@
         <v>46195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4045,13 @@
         <v>490629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -4057,13 +4060,13 @@
         <v>492468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>911</v>
@@ -4072,13 +4075,13 @@
         <v>983097</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4149,13 @@
         <v>7658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4161,13 +4164,13 @@
         <v>6195</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4176,13 +4179,13 @@
         <v>13853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4200,13 @@
         <v>316388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -4212,13 +4215,13 @@
         <v>334825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>622</v>
@@ -4227,13 +4230,13 @@
         <v>651213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,49 +4298,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>19305</v>
+        <v>9113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>51881</v>
+        <v>33680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>71186</v>
+        <v>42793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,49 +4349,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>606</v>
+        <v>335</v>
       </c>
       <c r="D14" s="7">
-        <v>649415</v>
+        <v>364869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>576</v>
+        <v>337</v>
       </c>
       <c r="I14" s="7">
-        <v>624315</v>
+        <v>355271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>1182</v>
+        <v>672</v>
       </c>
       <c r="N14" s="7">
-        <v>1273730</v>
+        <v>720140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4412,10 +4415,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4427,10 +4430,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4456,13 +4459,13 @@
         <v>20342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -4471,13 +4474,13 @@
         <v>30554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4486,13 +4489,13 @@
         <v>50895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4510,13 @@
         <v>192276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -4522,10 +4525,10 @@
         <v>189037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -4537,13 +4540,13 @@
         <v>381314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4614,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4626,13 +4629,13 @@
         <v>10082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4641,13 +4644,13 @@
         <v>11025</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,10 +4665,10 @@
         <v>273038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -4677,13 +4680,13 @@
         <v>269949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>519</v>
@@ -4692,13 +4695,13 @@
         <v>542987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4769,13 @@
         <v>18323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4781,10 +4784,10 @@
         <v>15801</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>96</v>
@@ -4796,13 +4799,13 @@
         <v>34124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4820,13 @@
         <v>644465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -4832,13 +4835,13 @@
         <v>678052</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>1221</v>
@@ -4847,13 +4850,13 @@
         <v>1322517</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4924,13 @@
         <v>23749</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4936,13 +4939,13 @@
         <v>29753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4951,13 +4954,13 @@
         <v>53502</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4975,13 @@
         <v>755349</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -4987,13 +4990,13 @@
         <v>794100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -5002,10 +5005,10 @@
         <v>1549449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>84</v>
@@ -5076,13 +5079,13 @@
         <v>105218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -5091,13 +5094,13 @@
         <v>175563</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>266</v>
@@ -5109,10 +5112,10 @@
         <v>73</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5130,13 @@
         <v>3321561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>3131</v>
@@ -5142,13 +5145,13 @@
         <v>3382746</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>6241</v>
@@ -5160,10 +5163,10 @@
         <v>82</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,7 +5246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF4A66-71AD-44C6-A078-1A325C95CD8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAA93AC-8E95-441E-92E4-85A4D14CD018}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5260,7 +5263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5367,13 +5370,13 @@
         <v>22004</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -5382,13 +5385,13 @@
         <v>46635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -5397,13 +5400,13 @@
         <v>68639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,10 +5421,10 @@
         <v>271757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>47</v>
@@ -5433,13 +5436,13 @@
         <v>242068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>478</v>
@@ -5448,13 +5451,13 @@
         <v>513825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5525,13 @@
         <v>16683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -5537,13 +5540,13 @@
         <v>52942</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5552,13 +5555,13 @@
         <v>69625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5576,13 @@
         <v>485892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -5588,13 +5591,13 @@
         <v>470142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>895</v>
@@ -5603,13 +5606,13 @@
         <v>956034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5680,13 @@
         <v>6083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -5692,13 +5695,13 @@
         <v>30899</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5707,13 +5710,13 @@
         <v>36981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,10 +5731,10 @@
         <v>312482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>138</v>
@@ -5743,10 +5746,10 @@
         <v>305410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>48</v>
@@ -5758,13 +5761,13 @@
         <v>617893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5835,13 @@
         <v>17312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5847,13 +5850,13 @@
         <v>32952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5862,13 +5865,13 @@
         <v>50264</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5886,13 @@
         <v>352652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5898,13 +5901,13 @@
         <v>354331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -5913,13 +5916,13 @@
         <v>706983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,10 +5993,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -6002,13 +6005,13 @@
         <v>30053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6017,13 +6020,13 @@
         <v>45596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,10 +6044,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -6053,13 +6056,13 @@
         <v>188534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6068,13 +6071,13 @@
         <v>384212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6145,13 @@
         <v>11583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6157,13 +6160,13 @@
         <v>32973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6172,13 +6175,13 @@
         <v>44557</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6196,13 @@
         <v>251540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -6208,13 +6211,13 @@
         <v>240142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -6223,13 +6226,13 @@
         <v>491681</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,10 +6303,10 @@
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -6312,13 +6315,13 @@
         <v>76585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -6327,13 +6330,13 @@
         <v>104106</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,10 +6354,10 @@
         <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>579</v>
@@ -6363,13 +6366,13 @@
         <v>614709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>1135</v>
@@ -6378,13 +6381,13 @@
         <v>1243746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6455,13 @@
         <v>36444</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6467,13 +6470,13 @@
         <v>87759</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -6482,13 +6485,13 @@
         <v>124203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6506,13 @@
         <v>742139</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -6518,13 +6521,13 @@
         <v>738408</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>1393</v>
@@ -6533,13 +6536,13 @@
         <v>1480547</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6610,13 @@
         <v>153173</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>356</v>
@@ -6622,13 +6625,13 @@
         <v>390800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>505</v>
@@ -6637,13 +6640,13 @@
         <v>543973</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,10 +6661,10 @@
         <v>3241177</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>46</v>
@@ -6673,13 +6676,13 @@
         <v>3153742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>6064</v>
@@ -6688,13 +6691,13 @@
         <v>6394919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0465AFBD-9BDF-4803-A6C4-FCC3140DD775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82925CFE-39CB-4B43-8F35-2220A4543F5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,7 +6794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6892,49 +6895,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>10512</v>
+        <v>11361</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>7104</v>
+        <v>6904</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>459</v>
+        <v>59</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>17615</v>
+        <v>18265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>465</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>462</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,49 +6946,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>249786</v>
+        <v>300082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>464</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H5" s="7">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I5" s="7">
-        <v>264299</v>
+        <v>282731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>468</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N5" s="7">
-        <v>514085</v>
+        <v>582812</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>470</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>469</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,7 +7000,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7012,7 +7015,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7027,7 +7030,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7047,49 +7050,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>24057</v>
+        <v>12802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H7" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>39053</v>
+        <v>30841</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>63111</v>
+        <v>43643</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,49 +7101,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>495240</v>
+        <v>505588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H8" s="7">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="I8" s="7">
-        <v>515513</v>
+        <v>484128</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>483</v>
       </c>
       <c r="M8" s="7">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="N8" s="7">
-        <v>1010753</v>
+        <v>989716</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,7 +7155,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7167,7 +7170,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7182,7 +7185,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7202,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>11354</v>
+        <v>11228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>486</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>23990</v>
+        <v>18051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>487</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>35344</v>
+        <v>29279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D11" s="7">
-        <v>310886</v>
+        <v>304822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>493</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="H11" s="7">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="I11" s="7">
-        <v>349294</v>
+        <v>331077</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>495</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="N11" s="7">
-        <v>660180</v>
+        <v>635899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,7 +7310,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7322,7 +7325,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7337,7 +7340,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7357,49 +7360,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>19941</v>
+        <v>17876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>22907</v>
+        <v>16846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>42848</v>
+        <v>34722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>302299</v>
+        <v>294681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>509</v>
       </c>
       <c r="H14" s="7">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="I14" s="7">
-        <v>405649</v>
+        <v>458872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M14" s="7">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="N14" s="7">
-        <v>707948</v>
+        <v>753552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,7 +7465,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7477,7 +7480,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7492,7 +7495,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7515,46 +7518,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2267</v>
+        <v>2043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>6800</v>
+        <v>6138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>458</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>53</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>9067</v>
+        <v>8182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,46 +7569,46 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>194481</v>
+        <v>176699</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>480</v>
       </c>
       <c r="I17" s="7">
-        <v>252713</v>
+        <v>252641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
       </c>
       <c r="N17" s="7">
-        <v>447193</v>
+        <v>429339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,7 +7620,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7632,7 +7635,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7647,7 +7650,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7670,46 +7673,46 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>11150</v>
+        <v>10603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>11496</v>
+        <v>10016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>525</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>22646</v>
+        <v>20618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,46 +7724,46 @@
         <v>357</v>
       </c>
       <c r="D20" s="7">
-        <v>266073</v>
+        <v>259033</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I20" s="7">
-        <v>264126</v>
+        <v>247040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="N20" s="7">
-        <v>530199</v>
+        <v>506074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,7 +7775,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7787,7 +7790,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7802,7 +7805,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7822,49 +7825,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>35090</v>
+        <v>30853</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>536</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>159023</v>
+        <v>244995</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N22" s="7">
-        <v>194113</v>
+        <v>275848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7873,49 +7876,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D23" s="7">
-        <v>592664</v>
+        <v>593426</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H23" s="7">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="I23" s="7">
-        <v>645180</v>
+        <v>604270</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M23" s="7">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="N23" s="7">
-        <v>1237844</v>
+        <v>1197696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,7 +7930,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7942,7 +7945,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7957,7 +7960,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7977,49 +7980,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>93496</v>
+        <v>16356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="I25" s="7">
-        <v>106499</v>
+        <v>29926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M25" s="7">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>199995</v>
+        <v>46282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,49 +8031,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="D26" s="7">
-        <v>765932</v>
+        <v>912364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>560</v>
+        <v>226</v>
       </c>
       <c r="H26" s="7">
-        <v>924</v>
+        <v>1014</v>
       </c>
       <c r="I26" s="7">
-        <v>761935</v>
+        <v>687805</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
-        <v>1594</v>
+        <v>1756</v>
       </c>
       <c r="N26" s="7">
-        <v>1527867</v>
+        <v>1600170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,7 +8085,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8097,7 +8100,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8112,7 +8115,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8132,49 +8135,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="D28" s="7">
-        <v>207867</v>
+        <v>113122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>567</v>
+        <v>56</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="7">
+        <v>266</v>
+      </c>
+      <c r="I28" s="7">
+        <v>363717</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="H28" s="7">
-        <v>383</v>
-      </c>
-      <c r="I28" s="7">
-        <v>376872</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>386</v>
+      </c>
+      <c r="N28" s="7">
+        <v>476840</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="M28" s="7">
-        <v>588</v>
-      </c>
-      <c r="N28" s="7">
-        <v>584739</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,49 +8186,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3171</v>
+        <v>3256</v>
       </c>
       <c r="D29" s="7">
-        <v>3177361</v>
+        <v>3346695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5101</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3348563</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M29" s="7">
+        <v>8357</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6695257</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H29" s="7">
-        <v>4984</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3458709</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="M29" s="7">
-        <v>8155</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6636070</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,7 +8240,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8252,7 +8255,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8267,7 +8270,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
